--- a/data/process_03/inputData.xlsx
+++ b/data/process_03/inputData.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
-    <sheet name="P_01" sheetId="1" r:id="rId1"/>
+    <sheet name="P_03" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Document Type</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>Releasing Partner</t>
+  </si>
+  <si>
+    <t>Shipping Point</t>
+  </si>
+  <si>
+    <t>Document Type2</t>
   </si>
 </sst>
 </file>
@@ -88,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,9 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -399,56 +415,65 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
-        <v>0</v>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -471,7 +496,10 @@
         <v>101215</v>
       </c>
       <c r="H2" s="1">
-        <v>44502</v>
+        <v>44239</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44561</v>
       </c>
       <c r="J2">
         <v>8470</v>
@@ -490,6 +518,12 @@
       </c>
       <c r="O2" t="s">
         <v>17</v>
+      </c>
+      <c r="P2">
+        <v>101215</v>
+      </c>
+      <c r="Q2">
+        <v>1272</v>
       </c>
     </row>
   </sheetData>

--- a/data/process_03/inputData.xlsx
+++ b/data/process_03/inputData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="P_03" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
         <v>101215</v>
       </c>
       <c r="H2" s="1">
-        <v>44239</v>
+        <v>44245</v>
       </c>
       <c r="I2" s="1">
         <v>44561</v>

--- a/data/process_03/inputData.xlsx
+++ b/data/process_03/inputData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Document Type</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Document Type2</t>
+  </si>
+  <si>
+    <t>Unit OfMeasure</t>
+  </si>
+  <si>
+    <t>lb</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -420,7 +426,7 @@
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,8 +478,11 @@
       <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -496,7 +505,7 @@
         <v>101215</v>
       </c>
       <c r="H2" s="1">
-        <v>44245</v>
+        <v>44247</v>
       </c>
       <c r="I2" s="1">
         <v>44561</v>
@@ -524,6 +533,9 @@
       </c>
       <c r="Q2">
         <v>1272</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/process_03/inputData.xlsx
+++ b/data/process_03/inputData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alam\Documents\UiPath\BDG\data\process_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDG\data\process_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -505,7 +505,7 @@
         <v>101215</v>
       </c>
       <c r="H2" s="1">
-        <v>44247</v>
+        <v>44245</v>
       </c>
       <c r="I2" s="1">
         <v>44561</v>

--- a/data/process_03/inputData.xlsx
+++ b/data/process_03/inputData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDG\data\process_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alam\Documents\UiPath\BDG\data\process_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Document Type</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>lb</t>
+  </si>
+  <si>
+    <t>Pricing Unit</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -426,7 +429,7 @@
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1">
+    <row r="1" spans="1:19" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,8 +484,11 @@
       <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -536,6 +542,9 @@
       </c>
       <c r="R2" t="s">
         <v>22</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/process_03/inputData.xlsx
+++ b/data/process_03/inputData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Document Type</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Pricing Unit</t>
+  </si>
+  <si>
+    <t>Customer Reference</t>
+  </si>
+  <si>
+    <t>Test3</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -429,7 +435,7 @@
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1">
+    <row r="1" spans="1:20" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,8 +493,11 @@
       <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -545,6 +554,9 @@
       </c>
       <c r="S2">
         <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/process_03/inputData.xlsx
+++ b/data/process_03/inputData.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -520,7 +520,7 @@
         <v>101215</v>
       </c>
       <c r="H2" s="1">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c r="I2" s="1">
         <v>44561</v>
